--- a/Table_details.xlsx
+++ b/Table_details.xlsx
@@ -7,10 +7,13 @@
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
-    <sheet name="revenue_details" sheetId="1" r:id="rId1"/>
+    <sheet name="rev" sheetId="1" r:id="rId1"/>
     <sheet name="Month_details" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rev!$A$1:$O$11</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -503,7 +506,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Table_details.xlsx
+++ b/Table_details.xlsx
@@ -1,42 +1,122 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21009"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{418663DB-13E0-4C7D-AF33-7426F959CA54}" xr6:coauthVersionLast="39" xr6:coauthVersionMax="39" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rev" sheetId="1" r:id="rId1"/>
     <sheet name="Month_details" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="headcount" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rev!$A$1:$O$11</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179020"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
   <si>
     <t>Project Name</t>
   </si>
   <si>
+    <t>SwonID</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
-    <t>Jan'18</t>
-  </si>
-  <si>
-    <t>Feb'18</t>
-  </si>
-  <si>
-    <t>Mar'18</t>
-  </si>
-  <si>
-    <t>April'18</t>
+    <t>Jan18</t>
+  </si>
+  <si>
+    <t>Feb18</t>
+  </si>
+  <si>
+    <t>Mar18</t>
+  </si>
+  <si>
+    <t>April18</t>
+  </si>
+  <si>
+    <t>May18</t>
+  </si>
+  <si>
+    <t>Jun18</t>
+  </si>
+  <si>
+    <t>Jul18</t>
+  </si>
+  <si>
+    <t>Aug18</t>
+  </si>
+  <si>
+    <t>Sep18</t>
+  </si>
+  <si>
+    <t>Oct18</t>
+  </si>
+  <si>
+    <t>Nov18</t>
+  </si>
+  <si>
+    <t>Dec18</t>
+  </si>
+  <si>
+    <t>Jan19</t>
+  </si>
+  <si>
+    <t>Feb19</t>
+  </si>
+  <si>
+    <t>Mar19</t>
+  </si>
+  <si>
+    <t>Trafigura</t>
+  </si>
+  <si>
+    <t>Sujat</t>
+  </si>
+  <si>
+    <t>Puma</t>
+  </si>
+  <si>
+    <t>Fabrizio</t>
+  </si>
+  <si>
+    <t>Humana</t>
+  </si>
+  <si>
+    <t>Triveni</t>
+  </si>
+  <si>
+    <t>Amex</t>
+  </si>
+  <si>
+    <t>Anil</t>
+  </si>
+  <si>
+    <t>Carnival</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>ViaCom</t>
+  </si>
+  <si>
+    <t>Luis</t>
   </si>
   <si>
     <t>Year</t>
@@ -45,6 +125,9 @@
     <t>Month</t>
   </si>
   <si>
+    <t>MD_ID</t>
+  </si>
+  <si>
     <t>January</t>
   </si>
   <si>
@@ -79,79 +162,13 @@
   </si>
   <si>
     <t>December</t>
-  </si>
-  <si>
-    <t>MD_ID</t>
-  </si>
-  <si>
-    <t>Swon_ID</t>
-  </si>
-  <si>
-    <t>Trafigura</t>
-  </si>
-  <si>
-    <t>Sujat</t>
-  </si>
-  <si>
-    <t>May'18</t>
-  </si>
-  <si>
-    <t>Jun'18</t>
-  </si>
-  <si>
-    <t>July'18</t>
-  </si>
-  <si>
-    <t>Aug'18</t>
-  </si>
-  <si>
-    <t>Sep'18</t>
-  </si>
-  <si>
-    <t>Oct'18</t>
-  </si>
-  <si>
-    <t>Nov'18</t>
-  </si>
-  <si>
-    <t>Dec'18</t>
-  </si>
-  <si>
-    <t>Puma</t>
-  </si>
-  <si>
-    <t>Fabrizio</t>
-  </si>
-  <si>
-    <t>Humana</t>
-  </si>
-  <si>
-    <t>Triveni</t>
-  </si>
-  <si>
-    <t>Amex</t>
-  </si>
-  <si>
-    <t>Anil</t>
-  </si>
-  <si>
-    <t>Carnival</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>ViaCom</t>
-  </si>
-  <si>
-    <t>Luis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,15 +180,6 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -197,11 +205,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -212,12 +219,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -259,7 +269,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -292,9 +302,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,6 +354,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -502,75 +546,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="M1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection sqref="A1:R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>21</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>2000</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>300</v>
@@ -608,16 +661,25 @@
       <c r="O2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <v>300</v>
+      </c>
+      <c r="Q2">
+        <v>500</v>
+      </c>
+      <c r="R2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>2001</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>500</v>
@@ -655,16 +717,25 @@
       <c r="O3">
         <v>900</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <v>500</v>
+      </c>
+      <c r="Q3">
+        <v>600</v>
+      </c>
+      <c r="R3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>3000</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>600</v>
@@ -702,16 +773,25 @@
       <c r="O4">
         <v>800</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>600</v>
+      </c>
+      <c r="Q4">
+        <v>566</v>
+      </c>
+      <c r="R4">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>3001</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>500</v>
@@ -749,16 +829,25 @@
       <c r="O5">
         <v>700</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>500</v>
+      </c>
+      <c r="Q5">
+        <v>777</v>
+      </c>
+      <c r="R5">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>4000</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>650</v>
@@ -796,16 +885,25 @@
       <c r="O6">
         <v>600</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>650</v>
+      </c>
+      <c r="Q6">
+        <v>810</v>
+      </c>
+      <c r="R6">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>4001</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>720</v>
@@ -843,16 +941,25 @@
       <c r="O7">
         <v>500</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>720</v>
+      </c>
+      <c r="Q7">
+        <v>889.7</v>
+      </c>
+      <c r="R7">
+        <v>922.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>5000</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>790</v>
@@ -890,16 +997,25 @@
       <c r="O8">
         <v>400</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>790</v>
+      </c>
+      <c r="Q8">
+        <v>969.4</v>
+      </c>
+      <c r="R8">
+        <v>1052.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>6000</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>860</v>
@@ -937,16 +1053,25 @@
       <c r="O9">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>860</v>
+      </c>
+      <c r="Q9">
+        <v>1049.0999999999999</v>
+      </c>
+      <c r="R9">
+        <v>1183.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>7000</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>930</v>
@@ -984,16 +1109,25 @@
       <c r="O10">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>930</v>
+      </c>
+      <c r="Q10">
+        <v>1128.8</v>
+      </c>
+      <c r="R10">
+        <v>1313.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>8000</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>1000</v>
@@ -1031,9 +1165,15 @@
       <c r="O11">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K13" s="3"/>
+      <c r="P11">
+        <v>1000</v>
+      </c>
+      <c r="Q11">
+        <v>1208.5</v>
+      </c>
+      <c r="R11">
+        <v>1444</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1042,153 +1182,153 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D13"/>
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2018</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2018</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2018</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>2018</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>418</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>2018</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>518</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>2018</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>618</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>2018</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <v>718</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>2018</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>818</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>2018</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>918</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>2018</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C11">
         <v>1018</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>2018</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>1118</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>2018</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C13">
         <v>1218</v>
@@ -1200,13 +1340,637 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+      <selection activeCell="D2" sqref="D2:R11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>2001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>3000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>43</v>
+      </c>
+      <c r="E4">
+        <v>43</v>
+      </c>
+      <c r="F4">
+        <v>43</v>
+      </c>
+      <c r="G4">
+        <v>43</v>
+      </c>
+      <c r="H4">
+        <v>43</v>
+      </c>
+      <c r="I4">
+        <v>43</v>
+      </c>
+      <c r="J4">
+        <v>43</v>
+      </c>
+      <c r="K4">
+        <v>43</v>
+      </c>
+      <c r="L4">
+        <v>43</v>
+      </c>
+      <c r="M4">
+        <v>43</v>
+      </c>
+      <c r="N4">
+        <v>43</v>
+      </c>
+      <c r="O4">
+        <v>43</v>
+      </c>
+      <c r="P4">
+        <v>43</v>
+      </c>
+      <c r="Q4">
+        <v>43</v>
+      </c>
+      <c r="R4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>3001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>12</v>
+      </c>
+      <c r="L5">
+        <v>12</v>
+      </c>
+      <c r="M5">
+        <v>12</v>
+      </c>
+      <c r="N5">
+        <v>12</v>
+      </c>
+      <c r="O5">
+        <v>12</v>
+      </c>
+      <c r="P5">
+        <v>12</v>
+      </c>
+      <c r="Q5">
+        <v>12</v>
+      </c>
+      <c r="R5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>4000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>131</v>
+      </c>
+      <c r="E6">
+        <v>131</v>
+      </c>
+      <c r="F6">
+        <v>131</v>
+      </c>
+      <c r="G6">
+        <v>131</v>
+      </c>
+      <c r="H6">
+        <v>131</v>
+      </c>
+      <c r="I6">
+        <v>131</v>
+      </c>
+      <c r="J6">
+        <v>131</v>
+      </c>
+      <c r="K6">
+        <v>131</v>
+      </c>
+      <c r="L6">
+        <v>131</v>
+      </c>
+      <c r="M6">
+        <v>131</v>
+      </c>
+      <c r="N6">
+        <v>131</v>
+      </c>
+      <c r="O6">
+        <v>131</v>
+      </c>
+      <c r="P6">
+        <v>131</v>
+      </c>
+      <c r="Q6">
+        <v>131</v>
+      </c>
+      <c r="R6">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>4001</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>145</v>
+      </c>
+      <c r="E7">
+        <v>145</v>
+      </c>
+      <c r="F7">
+        <v>145</v>
+      </c>
+      <c r="G7">
+        <v>145</v>
+      </c>
+      <c r="H7">
+        <v>145</v>
+      </c>
+      <c r="I7">
+        <v>145</v>
+      </c>
+      <c r="J7">
+        <v>145</v>
+      </c>
+      <c r="K7">
+        <v>145</v>
+      </c>
+      <c r="L7">
+        <v>145</v>
+      </c>
+      <c r="M7">
+        <v>145</v>
+      </c>
+      <c r="N7">
+        <v>145</v>
+      </c>
+      <c r="O7">
+        <v>145</v>
+      </c>
+      <c r="P7">
+        <v>145</v>
+      </c>
+      <c r="Q7">
+        <v>145</v>
+      </c>
+      <c r="R7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>5000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <v>20</v>
+      </c>
+      <c r="M8">
+        <v>20</v>
+      </c>
+      <c r="N8">
+        <v>20</v>
+      </c>
+      <c r="O8">
+        <v>20</v>
+      </c>
+      <c r="P8">
+        <v>20</v>
+      </c>
+      <c r="Q8">
+        <v>20</v>
+      </c>
+      <c r="R8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>6000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>34</v>
+      </c>
+      <c r="F9">
+        <v>34</v>
+      </c>
+      <c r="G9">
+        <v>34</v>
+      </c>
+      <c r="H9">
+        <v>34</v>
+      </c>
+      <c r="I9">
+        <v>34</v>
+      </c>
+      <c r="J9">
+        <v>34</v>
+      </c>
+      <c r="K9">
+        <v>34</v>
+      </c>
+      <c r="L9">
+        <v>34</v>
+      </c>
+      <c r="M9">
+        <v>34</v>
+      </c>
+      <c r="N9">
+        <v>34</v>
+      </c>
+      <c r="O9">
+        <v>34</v>
+      </c>
+      <c r="P9">
+        <v>34</v>
+      </c>
+      <c r="Q9">
+        <v>34</v>
+      </c>
+      <c r="R9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>7000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>56</v>
+      </c>
+      <c r="E10">
+        <v>56</v>
+      </c>
+      <c r="F10">
+        <v>56</v>
+      </c>
+      <c r="G10">
+        <v>56</v>
+      </c>
+      <c r="H10">
+        <v>56</v>
+      </c>
+      <c r="I10">
+        <v>56</v>
+      </c>
+      <c r="J10">
+        <v>56</v>
+      </c>
+      <c r="K10">
+        <v>56</v>
+      </c>
+      <c r="L10">
+        <v>56</v>
+      </c>
+      <c r="M10">
+        <v>56</v>
+      </c>
+      <c r="N10">
+        <v>56</v>
+      </c>
+      <c r="O10">
+        <v>56</v>
+      </c>
+      <c r="P10">
+        <v>56</v>
+      </c>
+      <c r="Q10">
+        <v>56</v>
+      </c>
+      <c r="R10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>8000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>43</v>
+      </c>
+      <c r="E11">
+        <v>43</v>
+      </c>
+      <c r="F11">
+        <v>43</v>
+      </c>
+      <c r="G11">
+        <v>43</v>
+      </c>
+      <c r="H11">
+        <v>43</v>
+      </c>
+      <c r="I11">
+        <v>43</v>
+      </c>
+      <c r="J11">
+        <v>43</v>
+      </c>
+      <c r="K11">
+        <v>43</v>
+      </c>
+      <c r="L11">
+        <v>43</v>
+      </c>
+      <c r="M11">
+        <v>43</v>
+      </c>
+      <c r="N11">
+        <v>43</v>
+      </c>
+      <c r="O11">
+        <v>43</v>
+      </c>
+      <c r="P11">
+        <v>43</v>
+      </c>
+      <c r="Q11">
+        <v>43</v>
+      </c>
+      <c r="R11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="N15">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Table_details.xlsx
+++ b/Table_details.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21009"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{418663DB-13E0-4C7D-AF33-7426F959CA54}" xr6:coauthVersionLast="39" xr6:coauthVersionMax="39" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF8C594A-E678-4AF9-9612-44ADA5B9410A}" xr6:coauthVersionLast="39" xr6:coauthVersionMax="39" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rev" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
   <si>
-    <t>Project Name</t>
+    <t>ProjectName</t>
   </si>
   <si>
     <t>SwonID</t>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection sqref="A1:R11"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1343,9 +1343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
-      <selection activeCell="D2" sqref="D2:R11"/>
-    </sheetView>
+    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>

--- a/Table_details.xlsx
+++ b/Table_details.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21009"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF8C594A-E678-4AF9-9612-44ADA5B9410A}" xr6:coauthVersionLast="39" xr6:coauthVersionMax="39" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4978CB1-C773-40B3-9B5F-196C98C6C4D2}" xr6:coauthVersionLast="39" xr6:coauthVersionMax="39" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rev" sheetId="1" r:id="rId1"/>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1341,9 +1341,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
@@ -1963,11 +1965,6 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
-      <c r="N15">
-        <v>132</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
